--- a/data/trans_dic/P19F$mañana-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P19F$mañana-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2862425049110078</v>
+        <v>0.2885709974908666</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3451937382153317</v>
+        <v>0.3459903822389625</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3287475178083034</v>
+        <v>0.3253427627099199</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3592951754237674</v>
+        <v>0.3587850049046098</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4192673813662648</v>
+        <v>0.4227160876706765</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3842387524081923</v>
+        <v>0.3778390664435154</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3875109129165866</v>
+        <v>0.3900467865198698</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4220655085408885</v>
+        <v>0.4178739614787461</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4151201263362068</v>
+        <v>0.4166805191236814</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4769392705789129</v>
+        <v>0.476005010939878</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5110751098092674</v>
+        <v>0.5111562065796666</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4800719955793492</v>
+        <v>0.4791767772198294</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3928927187557063</v>
+        <v>0.3958770535649117</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4281267574225613</v>
+        <v>0.4265744282380102</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4276987279820229</v>
+        <v>0.4273042549816624</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5019681020932945</v>
+        <v>0.5038118326936246</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5411239715520031</v>
+        <v>0.5392187928859561</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5043986575464051</v>
+        <v>0.4999817781033212</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.434711375413714</v>
+        <v>0.4373975988706744</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5042609955548744</v>
+        <v>0.4950848674472653</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4789655763538338</v>
+        <v>0.4834710624325227</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5646734207998096</v>
+        <v>0.5579497440885344</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6402439220961683</v>
+        <v>0.6328540248843162</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5739645098534508</v>
+        <v>0.5789456230354416</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3820865384076923</v>
+        <v>0.3820425115581668</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.424047117492992</v>
+        <v>0.425012035507022</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4094058210859319</v>
+        <v>0.4097959245924211</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4300699444466702</v>
+        <v>0.4288467728340741</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4734177014208124</v>
+        <v>0.473133810171932</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4436347831093643</v>
+        <v>0.4426412205184803</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>182728</v>
+        <v>184214</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>239852</v>
+        <v>240406</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>438287</v>
+        <v>433748</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>229363</v>
+        <v>229037</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>291321</v>
+        <v>293718</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>512268</v>
+        <v>503736</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>190750</v>
+        <v>191998</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>207358</v>
+        <v>205299</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>408286</v>
+        <v>409821</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>234770</v>
+        <v>234310</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>251088</v>
+        <v>251128</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>472169</v>
+        <v>471288</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>142140</v>
+        <v>143219</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>142962</v>
+        <v>142444</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>297550</v>
+        <v>297276</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>181601</v>
+        <v>182268</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>180695</v>
+        <v>180059</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>350911</v>
+        <v>347838</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>118958</v>
+        <v>119693</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>110903</v>
+        <v>108885</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>236407</v>
+        <v>238631</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>154522</v>
+        <v>152682</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>140809</v>
+        <v>139184</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>283296</v>
+        <v>285755</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>674778</v>
+        <v>674700</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>737835</v>
+        <v>739514</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1435385</v>
+        <v>1436752</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>759519</v>
+        <v>757358</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>823739</v>
+        <v>823245</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1555392</v>
+        <v>1551909</v>
       </c>
     </row>
     <row r="24">
